--- a/Product backlog.xlsx
+++ b/Product backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Datamatiker\Business\Polygon\Presentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henrik\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -481,40 +481,6 @@
   </cellStyles>
   <dxfs count="17">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -628,6 +594,40 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -784,20 +784,20 @@
     <tableColumn id="8" name="As" dataDxfId="11" dataCellStyle="Currency"/>
     <tableColumn id="2" name="Story" dataDxfId="10"/>
     <tableColumn id="3" name="Estimation" dataDxfId="9"/>
-    <tableColumn id="4" name="Priority" dataDxfId="1"/>
-    <tableColumn id="5" name="Sprint" dataDxfId="0"/>
+    <tableColumn id="4" name="Priority" dataDxfId="8"/>
+    <tableColumn id="5" name="Sprint" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="A25:C41" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="A25:C41" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3">
   <autoFilter ref="A25:C41"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="ID" dataDxfId="4" dataCellStyle="Currency"/>
-    <tableColumn id="8" name="As" dataDxfId="3" dataCellStyle="Currency"/>
-    <tableColumn id="2" name="How to demo" dataDxfId="2"/>
+    <tableColumn id="1" name="ID" dataDxfId="2" dataCellStyle="Currency"/>
+    <tableColumn id="8" name="As" dataDxfId="1" dataCellStyle="Currency"/>
+    <tableColumn id="2" name="How to demo" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1068,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,7 +1139,9 @@
         <v>10</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="22"/>
+      <c r="F4" s="22">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -1187,7 +1189,9 @@
         <v>8</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="22"/>
+      <c r="F7" s="22">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -1287,7 +1291,9 @@
         <v>4</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="22"/>
+      <c r="F13" s="22">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
@@ -1321,7 +1327,7 @@
       <c r="E15" s="15"/>
       <c r="F15" s="23"/>
     </row>
-    <row r="16" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>14</v>
       </c>
@@ -1351,7 +1357,9 @@
         <v>6</v>
       </c>
       <c r="E17" s="15"/>
-      <c r="F17" s="23"/>
+      <c r="F17" s="23">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
